--- a/xls/AVU-Rektorát_Local.xlsx
+++ b/xls/AVU-Rektorát_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -82,18 +88,27 @@
     <t>Kracík Štorkánová, Magdalena, 5622883</t>
   </si>
   <si>
+    <t>Jak psát dějiny komiksu</t>
+  </si>
+  <si>
     <t>Seňorita Franco a Krvavý pes. Malíř, karikaturista a ilustrátor Antonín Pelc (1895-1967)</t>
   </si>
   <si>
     <t>CHARACTERIZATION OF HISTORIC MOSAIC AT PFEIFFER-KRAL SEPULCHER, JABLONEC NAD NISOU: A STUDY OF THE MORTAR AND TESSERAE ORIGIN</t>
   </si>
   <si>
+    <t>0009-0468</t>
+  </si>
+  <si>
     <t>0049-5123</t>
   </si>
   <si>
     <t>0862-5468</t>
   </si>
   <si>
+    <t>Česká literatura. Časopis pro literární vědu</t>
+  </si>
+  <si>
     <t>Umění</t>
   </si>
   <si>
@@ -106,6 +121,9 @@
     <t>http://www.ceramics-silikaty.cz/2014/2014_04_308.htm</t>
   </si>
   <si>
+    <t>345d438c47407055445a359e512c13d1469782c4</t>
+  </si>
+  <si>
     <t>3bd32a006836254ffdf896ae500f1dd6d8fcbf19</t>
   </si>
   <si>
@@ -131,6 +149,12 @@
   </si>
   <si>
     <t>AVU-Akademie výtvarných umění v Praze</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -501,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +536,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,13 +594,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -585,110 +615,184 @@
         <v>9.0322981</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>60461446</v>
       </c>
       <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9.0322981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>2014</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0.33333334</v>
-      </c>
-      <c r="D3">
-        <v>7.4316263</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>60461446</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0.33333334</v>
+      </c>
+      <c r="D4">
+        <v>7.4316263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
+      <c r="L4" t="s">
         <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>60461446</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
